--- a/biology/Zoologie/Caeruleuptychia_twalela/Caeruleuptychia_twalela.xlsx
+++ b/biology/Zoologie/Caeruleuptychia_twalela/Caeruleuptychia_twalela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caeruleuptychia twalela est une espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae et du genre Caeruleuptychia.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caeruleuptychia twalela a été décrit par Christian Brévignon en 2005[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caeruleuptychia twalela a été décrit par Christian Brévignon en 2005.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Caeruleuptychia twalela est un papillon au dessus de couleur marron.
 Le revers est marron suffusé de bleu et orné d'une ligne d'ocelles, quatre aux ailes antérieures, six aux ailes postérieures dont celui de l'apex des antérieures et les deux plus proche de l'angle anal sont doublement pupillés de bleu.
@@ -574,9 +590,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane il a été inventorié en juillet, septembre, octobre et janvier[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane il a été inventorié en juillet, septembre, octobre et janvier.
 </t>
         </is>
       </c>
@@ -605,13 +623,85 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caeruleuptychia twalela n'est présent qu'en Guyane[1].
-Biotope
-Neuropsychiatre twalela réside en zone de chablis et en lisière des chemins de la forêt primaire[1].
-Protection
-Pas de statut de protection particulier
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caeruleuptychia twalela n'est présent qu'en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Caeruleuptychia_twalela</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caeruleuptychia_twalela</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Neuropsychiatre twalela réside en zone de chablis et en lisière des chemins de la forêt primaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Caeruleuptychia_twalela</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caeruleuptychia_twalela</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 </t>
         </is>
       </c>
